--- a/Data/second.xlsx
+++ b/Data/second.xlsx
@@ -22,7 +22,7 @@
     <t>Unnamed: 1</t>
   </si>
   <si>
-    <t>2017-06-11 16_59 - BK Ranju</t>
+    <t>2018-11-27 13_28 - Kishan Lal Sharma</t>
   </si>
   <si>
     <t>Parameters</t>
@@ -760,136 +760,136 @@
         <v>71</v>
       </c>
       <c r="BB1" s="1">
+        <v>74</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>75</v>
+      </c>
+      <c r="BD1" s="1">
         <v>76</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BE1" s="1">
         <v>77</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BF1" s="1">
         <v>78</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BG1" s="1">
         <v>79</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BH1" s="1">
         <v>80</v>
       </c>
-      <c r="BG1" s="1">
-        <v>81</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>82</v>
-      </c>
       <c r="BI1" s="1">
+        <v>83</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>84</v>
+      </c>
+      <c r="BK1" s="1">
         <v>85</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BL1" s="1">
         <v>86</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BM1" s="1">
         <v>87</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BN1" s="1">
         <v>88</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BO1" s="1">
         <v>89</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BP1" s="1">
         <v>90</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BQ1" s="1">
         <v>91</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BR1" s="1">
         <v>92</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BS1" s="1">
         <v>93</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BT1" s="1">
         <v>94</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BU1" s="1">
         <v>95</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BV1" s="1">
         <v>96</v>
       </c>
-      <c r="BU1" s="1">
-        <v>97</v>
-      </c>
-      <c r="BV1" s="1">
+      <c r="BW1" s="1">
         <v>98</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="BX1" s="1">
+        <v>99</v>
+      </c>
+      <c r="BY1" s="1">
         <v>100</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="BZ1" s="1">
         <v>101</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="CA1" s="1">
         <v>102</v>
       </c>
-      <c r="BZ1" s="1">
+      <c r="CB1" s="1">
         <v>103</v>
       </c>
-      <c r="CA1" s="1">
+      <c r="CC1" s="1">
         <v>104</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="CD1" s="1">
         <v>105</v>
       </c>
-      <c r="CC1" s="1">
+      <c r="CE1" s="1">
         <v>106</v>
       </c>
-      <c r="CD1" s="1">
+      <c r="CF1" s="1">
         <v>107</v>
       </c>
-      <c r="CE1" s="1">
+      <c r="CG1" s="1">
         <v>108</v>
       </c>
-      <c r="CF1" s="1">
+      <c r="CH1" s="1">
         <v>109</v>
       </c>
-      <c r="CG1" s="1">
+      <c r="CI1" s="1">
         <v>110</v>
       </c>
-      <c r="CH1" s="1">
+      <c r="CJ1" s="1">
         <v>111</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="CK1" s="1">
         <v>112</v>
       </c>
-      <c r="CJ1" s="1">
+      <c r="CL1" s="1">
         <v>113</v>
       </c>
-      <c r="CK1" s="1">
+      <c r="CM1" s="1">
         <v>114</v>
       </c>
-      <c r="CL1" s="1">
+      <c r="CN1" s="1">
         <v>115</v>
       </c>
-      <c r="CM1" s="1">
+      <c r="CO1" s="1">
         <v>116</v>
       </c>
-      <c r="CN1" s="1">
+      <c r="CP1" s="1">
         <v>117</v>
       </c>
-      <c r="CO1" s="1">
+      <c r="CQ1" s="1">
         <v>118</v>
       </c>
-      <c r="CP1" s="1">
+      <c r="CR1" s="1">
         <v>119</v>
       </c>
-      <c r="CQ1" s="1">
+      <c r="CS1" s="1">
         <v>120</v>
-      </c>
-      <c r="CR1" s="1">
-        <v>121</v>
-      </c>
-      <c r="CS1" s="1">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:97">
@@ -1195,289 +1195,289 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D4">
-        <v>64.72</v>
+        <v>51.75</v>
       </c>
       <c r="E4">
-        <v>95.95</v>
+        <v>93.66</v>
       </c>
       <c r="F4">
-        <v>92.2</v>
+        <v>90.2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2.51</v>
       </c>
       <c r="H4">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="I4">
-        <v>90127</v>
+        <v>75391</v>
       </c>
       <c r="J4">
-        <v>43.75</v>
+        <v>34.82</v>
       </c>
       <c r="K4">
-        <v>90401</v>
+        <v>74309</v>
       </c>
       <c r="L4">
-        <v>42.4</v>
+        <v>33.38</v>
       </c>
       <c r="M4">
-        <v>89782</v>
+        <v>73331</v>
       </c>
       <c r="N4">
-        <v>41.3</v>
+        <v>32.27</v>
       </c>
       <c r="O4">
-        <v>5.72</v>
+        <v>4.58</v>
       </c>
       <c r="P4">
-        <v>5.94</v>
+        <v>5.59</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4.93</v>
       </c>
       <c r="R4">
-        <v>6.68</v>
+        <v>5.25</v>
       </c>
       <c r="S4">
-        <v>5.86</v>
+        <v>4.56</v>
       </c>
       <c r="T4">
-        <v>4.92</v>
+        <v>4.08</v>
       </c>
       <c r="U4">
-        <v>5.17</v>
+        <v>4.53</v>
       </c>
       <c r="V4">
-        <v>99.23999999999999</v>
+        <v>81.09</v>
       </c>
       <c r="W4">
-        <v>33.33</v>
+        <v>79.89</v>
       </c>
       <c r="X4">
-        <v>58.8</v>
+        <v>97.66</v>
       </c>
       <c r="Y4">
-        <v>33.33</v>
+        <v>85.09</v>
       </c>
       <c r="Z4">
-        <v>97.14</v>
+        <v>88.52</v>
       </c>
       <c r="AA4">
-        <v>80.44</v>
+        <v>80.25</v>
       </c>
       <c r="AB4">
-        <v>33.33</v>
+        <v>98.31</v>
       </c>
       <c r="AC4">
-        <v>0.02</v>
+        <v>-0.57</v>
       </c>
       <c r="AD4">
-        <v>-2</v>
+        <v>-0.6</v>
       </c>
       <c r="AE4">
-        <v>1.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4">
-        <v>2</v>
+        <v>-0.45</v>
       </c>
       <c r="AG4">
-        <v>0.09</v>
+        <v>-0.34</v>
       </c>
       <c r="AH4">
         <v>-0.59</v>
       </c>
       <c r="AI4">
-        <v>-2</v>
+        <v>0.05</v>
       </c>
       <c r="AJ4">
-        <v>62.23</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="AK4">
-        <v>59.7</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="AL4">
-        <v>51.64</v>
+        <v>50.44</v>
       </c>
       <c r="AM4">
-        <v>48.36</v>
+        <v>49.56</v>
       </c>
       <c r="AN4">
-        <v>4.67</v>
+        <v>4.54</v>
       </c>
       <c r="AO4">
-        <v>6.63</v>
+        <v>5.01</v>
       </c>
       <c r="AP4">
-        <v>7.75</v>
+        <v>4.3</v>
       </c>
       <c r="AQ4">
-        <v>5.66</v>
+        <v>4.85</v>
       </c>
       <c r="AR4">
-        <v>6.4</v>
+        <v>5.26</v>
       </c>
       <c r="AS4">
-        <v>5.03</v>
+        <v>5.42</v>
       </c>
       <c r="AT4">
-        <v>5.22</v>
+        <v>4.71</v>
       </c>
       <c r="AU4">
-        <v>5.37</v>
+        <v>4.71</v>
       </c>
       <c r="AV4">
-        <v>5.4</v>
+        <v>3.96</v>
       </c>
       <c r="AW4">
-        <v>5.5</v>
+        <v>4.23</v>
       </c>
       <c r="AX4">
-        <v>5.33</v>
+        <v>4.77</v>
       </c>
       <c r="AY4">
-        <v>7.01</v>
+        <v>6.48</v>
       </c>
       <c r="AZ4">
-        <v>5.39</v>
+        <v>4.22</v>
       </c>
       <c r="BA4">
-        <v>4.66</v>
+        <v>4.3</v>
       </c>
       <c r="BB4">
+        <v>3.79</v>
+      </c>
+      <c r="BC4">
+        <v>4.26</v>
+      </c>
+      <c r="BD4">
+        <v>5.42</v>
+      </c>
+      <c r="BE4">
+        <v>4.54</v>
+      </c>
+      <c r="BF4">
+        <v>3.3</v>
+      </c>
+      <c r="BG4">
+        <v>3.77</v>
+      </c>
+      <c r="BH4">
+        <v>5.01</v>
+      </c>
+      <c r="BI4">
+        <v>4.53</v>
+      </c>
+      <c r="BJ4">
+        <v>4.77</v>
+      </c>
+      <c r="BK4">
+        <v>4.68</v>
+      </c>
+      <c r="BL4">
+        <v>4.26</v>
+      </c>
+      <c r="BM4">
+        <v>4.57</v>
+      </c>
+      <c r="BN4">
+        <v>4.62</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>4.89</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>4.32</v>
+      </c>
+      <c r="BS4">
+        <v>4.2</v>
+      </c>
+      <c r="BT4">
+        <v>3.88</v>
+      </c>
+      <c r="BU4">
+        <v>4.48</v>
+      </c>
+      <c r="BV4">
+        <v>4.8</v>
+      </c>
+      <c r="BW4">
+        <v>4.63</v>
+      </c>
+      <c r="BX4">
+        <v>5.17</v>
+      </c>
+      <c r="BY4">
+        <v>5.72</v>
+      </c>
+      <c r="BZ4">
+        <v>5.43</v>
+      </c>
+      <c r="CA4">
+        <v>3.45</v>
+      </c>
+      <c r="CB4">
+        <v>5.48</v>
+      </c>
+      <c r="CC4">
+        <v>4.05</v>
+      </c>
+      <c r="CD4">
+        <v>3.85</v>
+      </c>
+      <c r="CE4">
+        <v>5.12</v>
+      </c>
+      <c r="CF4">
+        <v>4.93</v>
+      </c>
+      <c r="CG4">
+        <v>4.3</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>3.96</v>
+      </c>
+      <c r="CJ4">
+        <v>4.79</v>
+      </c>
+      <c r="CK4">
+        <v>4.23</v>
+      </c>
+      <c r="CL4">
+        <v>5.43</v>
+      </c>
+      <c r="CM4">
+        <v>6.48</v>
+      </c>
+      <c r="CN4">
+        <v>5.26</v>
+      </c>
+      <c r="CO4">
+        <v>4.54</v>
+      </c>
+      <c r="CP4">
         <v>5.13</v>
       </c>
-      <c r="BC4">
-        <v>4.91</v>
-      </c>
-      <c r="BD4">
-        <v>5.03</v>
-      </c>
-      <c r="BE4">
-        <v>4.67</v>
-      </c>
-      <c r="BF4">
-        <v>4.72</v>
-      </c>
-      <c r="BG4">
-        <v>5.22</v>
-      </c>
-      <c r="BH4">
-        <v>6.63</v>
-      </c>
-      <c r="BI4">
-        <v>5.43</v>
-      </c>
-      <c r="BJ4">
-        <v>5.33</v>
-      </c>
-      <c r="BK4">
-        <v>4.57</v>
-      </c>
-      <c r="BL4">
-        <v>5.37</v>
-      </c>
-      <c r="BM4">
-        <v>5.33</v>
-      </c>
-      <c r="BN4">
-        <v>5.89</v>
-      </c>
-      <c r="BO4">
-        <v>5.66</v>
-      </c>
-      <c r="BP4">
-        <v>5.71</v>
-      </c>
-      <c r="BQ4">
-        <v>4.77</v>
-      </c>
-      <c r="BR4">
-        <v>5.54</v>
-      </c>
-      <c r="BS4">
-        <v>4.89</v>
-      </c>
-      <c r="BT4">
-        <v>4.79</v>
-      </c>
-      <c r="BU4">
-        <v>5.45</v>
-      </c>
-      <c r="BV4">
-        <v>5.89</v>
-      </c>
-      <c r="BW4">
-        <v>5.62</v>
-      </c>
-      <c r="BX4">
-        <v>5.54</v>
-      </c>
-      <c r="BY4">
-        <v>6.14</v>
-      </c>
-      <c r="BZ4">
-        <v>7.35</v>
-      </c>
-      <c r="CA4">
-        <v>5.66</v>
-      </c>
-      <c r="CB4">
-        <v>4.85</v>
-      </c>
-      <c r="CC4">
-        <v>4.34</v>
-      </c>
-      <c r="CD4">
-        <v>3.91</v>
-      </c>
-      <c r="CE4">
-        <v>4.09</v>
-      </c>
-      <c r="CF4">
-        <v>6.44</v>
-      </c>
-      <c r="CG4">
-        <v>7.75</v>
-      </c>
-      <c r="CH4">
-        <v>5.66</v>
-      </c>
-      <c r="CI4">
-        <v>5.4</v>
-      </c>
-      <c r="CJ4">
-        <v>4.49</v>
-      </c>
-      <c r="CK4">
-        <v>5.5</v>
-      </c>
-      <c r="CL4">
-        <v>6.56</v>
-      </c>
-      <c r="CM4">
-        <v>7.01</v>
-      </c>
-      <c r="CN4">
-        <v>6.4</v>
-      </c>
-      <c r="CO4">
-        <v>6.29</v>
-      </c>
-      <c r="CP4">
-        <v>4.5</v>
-      </c>
       <c r="CQ4">
-        <v>4.5</v>
+        <v>5.13</v>
       </c>
       <c r="CR4">
-        <v>4.51</v>
+        <v>5.11</v>
       </c>
       <c r="CS4">
-        <v>4.51</v>
+        <v>5.11</v>
       </c>
     </row>
   </sheetData>
